--- a/excel/standards and choices.xlsx
+++ b/excel/standards and choices.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLewis\Downloads\infoasset2icm_wastewater_model\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLewis\Downloads\infoasset2icm_wastewater_model\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6699629-E798-41B1-9224-7388A91DA8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE687AD4-A3AB-426E-B447-DA88488242BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4583E5F6-CD15-4D42-8672-8DA5A4BAD8CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4583E5F6-CD15-4D42-8672-8DA5A4BAD8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="system_type" sheetId="2" r:id="rId1"/>
-    <sheet name="node_type" sheetId="1" r:id="rId2"/>
-    <sheet name="status" sheetId="3" r:id="rId3"/>
+    <sheet name="pipe_shape" sheetId="4" r:id="rId2"/>
+    <sheet name="node_type" sheetId="1" r:id="rId3"/>
+    <sheet name="status" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="134">
   <si>
     <t>Text</t>
   </si>
@@ -389,6 +390,57 @@
   </si>
   <si>
     <t>foul</t>
+  </si>
+  <si>
+    <t>pipe_shape</t>
+  </si>
+  <si>
+    <t>{{ARCH}</t>
+  </si>
+  <si>
+    <t>{Arch shaped pipe}</t>
+  </si>
+  <si>
+    <t>{CIRC}</t>
+  </si>
+  <si>
+    <t>{Circular pipe}</t>
+  </si>
+  <si>
+    <t>{EGG}</t>
+  </si>
+  <si>
+    <t>{Egg shaped pipe (Circles touching )}</t>
+  </si>
+  <si>
+    <t>{EGG2}</t>
+  </si>
+  <si>
+    <t>{Egg shaped pipe (Circles not touching)}</t>
+  </si>
+  <si>
+    <t>{OVAL}</t>
+  </si>
+  <si>
+    <t>{Oval pipe}</t>
+  </si>
+  <si>
+    <t>{RECT}</t>
+  </si>
+  <si>
+    <t>{Rectangular pipe}</t>
+  </si>
+  <si>
+    <t>{UTOP}</t>
+  </si>
+  <si>
+    <t>{U-shaped pipe}</t>
+  </si>
+  <si>
+    <t>{TBD}</t>
+  </si>
+  <si>
+    <t>{To Be Defined}}</t>
   </si>
 </sst>
 </file>
@@ -772,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C07B7A9-109D-4C96-8443-EF64BC90661A}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E2:E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1068,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD33AFE7-AE2A-449C-B2E9-54838425E568}">
+  <dimension ref="A2:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244E5B52-1A4B-48CF-AA76-4E8398FFC4FA}">
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -1487,7 +1623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAA9BC4-ED1D-4249-8C91-A88CEA549B99}">
   <dimension ref="A1:B11"/>
   <sheetViews>

--- a/excel/standards and choices.xlsx
+++ b/excel/standards and choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLewis\Downloads\infoasset2icm_wastewater_model\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A053A6D2-F720-46D4-A710-4BA2894C9F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6D8524-4F56-466E-A55D-9D3AC3352AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4583E5F6-CD15-4D42-8672-8DA5A4BAD8CC}"/>
   </bookViews>
@@ -791,26 +791,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -845,18 +837,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0D3E6D9E-F53A-4A1F-95D3-4B88DB290256}" name="Table478910" displayName="Table478910" ref="A1:H85" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0D3E6D9E-F53A-4A1F-95D3-4B88DB290256}" name="Table478910" displayName="Table478910" ref="A1:H85" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="8">
-    <tableColumn id="7" xr3:uid="{7ABD793E-8D63-4AA0-AAF6-5569243E7DCF}" name="order" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{6589608E-42C4-45E4-84BE-7A4DC1EB6C5E}" name="in_feature" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{46F99FA5-8A4A-49C1-BC8E-7D8D5D97C199}" name="Text" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2BE706E3-801E-4AA6-8F75-43C7146381B5}" name="Description" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3FD34691-01B6-4080-A5AF-BB7C5BD3611B}" name="out_feature" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{5218AB65-3539-4ABF-A6E3-AA11E6699776}" name="out_type" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{9F94EBA8-157B-496B-B0E3-4D6E9395A1E8}" name="ruby_code" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{7ABD793E-8D63-4AA0-AAF6-5569243E7DCF}" name="order" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{6589608E-42C4-45E4-84BE-7A4DC1EB6C5E}" name="in_feature" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{46F99FA5-8A4A-49C1-BC8E-7D8D5D97C199}" name="Text" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2BE706E3-801E-4AA6-8F75-43C7146381B5}" name="Description" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3FD34691-01B6-4080-A5AF-BB7C5BD3611B}" name="out_feature" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5218AB65-3539-4ABF-A6E3-AA11E6699776}" name="out_type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{9F94EBA8-157B-496B-B0E3-4D6E9395A1E8}" name="ruby_code" dataDxfId="1">
       <calculatedColumnFormula>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A2D78E52-4DB8-4247-9921-EBF2D8691D89}" name="notes" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A2D78E52-4DB8-4247-9921-EBF2D8691D89}" name="notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1161,9 +1153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEC6927-9412-46DD-BE24-768FD3AF8048}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,7 +3290,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/excel/standards and choices.xlsx
+++ b/excel/standards and choices.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLewis\Downloads\infoasset2icm_wastewater_model\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6D8524-4F56-466E-A55D-9D3AC3352AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F9FDEC-51A5-4269-84F6-625EF1999094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4583E5F6-CD15-4D42-8672-8DA5A4BAD8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="schema changes" sheetId="10" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Table478910[#All]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -764,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -786,6 +789,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,11 +1157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEC6927-9412-46DD-BE24-768FD3AF8048}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,10 +1174,12 @@
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="177.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
@@ -1196,8 +1204,12 @@
       <c r="H1" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="8" t="str">
+        <f>"| "&amp;A1&amp;" | "&amp;B1&amp;" | "&amp;C1&amp;" | "&amp;D1&amp;" | "&amp;E1&amp;" | "&amp;F1&amp;" | "&amp;G1&amp;" | "&amp;H1&amp;" |"</f>
+        <v>| order | in_feature | Text | Description | out_feature | out_type | ruby_code | notes |</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1223,8 +1235,12 @@
       <c r="H2" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="8" t="str">
+        <f>"| "&amp;A2&amp;" | "&amp;B2&amp;" | "&amp;C2&amp;" | "&amp;D2&amp;" | "&amp;E2&amp;" | "&amp;F2&amp;" | "&amp;G2&amp;" | "&amp;H2&amp;" |"</f>
+        <v>| 1 | valve.type | SRM1 | Sewer-Rising Main Valve AIR | orifice.link_type | Orific | 'SRM1' =&gt; 'Orific',    #Sewer-Rising Main Valve AIR | create an orifice - however make sure it is full open |</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1250,8 +1266,12 @@
       <c r="H3" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="8" t="str">
+        <f t="shared" ref="J3:J66" si="0">"| "&amp;A3&amp;" | "&amp;B3&amp;" | "&amp;C3&amp;" | "&amp;D3&amp;" | "&amp;E3&amp;" | "&amp;F3&amp;" | "&amp;G3&amp;" | "&amp;H3&amp;" |"</f>
+        <v>| 2 | valve.type | SRM2 | Sewer-Rising Main Valve BF | orifice.link_type | Orific | 'SRM2' =&gt; 'Orific',    #Sewer-Rising Main Valve BF | create an orifice - however make sure it is full open |</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1277,8 +1297,12 @@
       <c r="H4" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 3 | valve.type | SRM3 | Sewer-Rising Main Valve Gate | orifice.link_type | Orific | 'SRM3' =&gt; 'Orific',    #Sewer-Rising Main Valve Gate | create an orifice - however make sure it is full open |</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1304,8 +1328,12 @@
       <c r="H5" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 4 | valve.type | SRM4 | Sewer-Rising Main Valve NR | orifice.link_type | Orific | 'SRM4' =&gt; 'Orific',    #Sewer-Rising Main Valve NR | create an orifice - however make sure it is full open |</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1328,8 +1356,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'SRM5' =&gt; 'Circular',    #Sewer-Rising Main Valve Reflux</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 5 | valve.type | SRM5 | Sewer-Rising Main Valve Reflux | flap.valve_type | Circular | 'SRM5' =&gt; 'Circular',    #Sewer-Rising Main Valve Reflux |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1352,8 +1384,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'SRM6' =&gt; 'Sluice',    #Sewer-Rising Main Valve Sluice</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 6 | valve.type | SRM6 | Sewer-Rising Main Valve Sluice | sluice.link_type | Sluice | 'SRM6' =&gt; 'Sluice',    #Sewer-Rising Main Valve Sluice |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1379,8 +1415,12 @@
       <c r="H8" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 7 | valve.type | SRM7 | Sewer-Rising Main Shut Valve | orifice.link_type | Orific | 'SRM7' =&gt; 'Orific',    #Sewer-Rising Main Shut Valve | create an orifice - however make sure it is full closed |</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1406,8 +1446,12 @@
       <c r="H9" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 8 | screen.type | S | Standard | NA | NA | 'S' =&gt; 'NA',    #Standard | out_type not needed as there isn't a type in ICM |</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1430,8 +1474,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'S' =&gt; 'Sluice',    #Standard</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 9 | sluice.type | S | Standard | sluice.link_type | Sluice | 'S' =&gt; 'Sluice',    #Standard |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1454,8 +1502,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'V' =&gt; 'VSGate',    #Variable vertical sluice</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 10 | sluice.type | V | Variable vertical sluice | sluice.link_type | VSGate | 'V' =&gt; 'VSGate',    #Variable vertical sluice |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>83</v>
       </c>
@@ -1481,8 +1533,12 @@
       <c r="H12" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 83 | sluice.type | RS | Radial sluice | sluice.link_type | RSGate | 'RS' =&gt; 'RSGate',    #Radial sluice | this would be a new type in InfoAsset |</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>84</v>
       </c>
@@ -1508,8 +1564,12 @@
       <c r="H13" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 84 | sluice.type | VR | Variable radial sluice | sluice.link_type | VRGate | 'VR' =&gt; 'VRGate',    #Variable radial sluice | this would be a new type in InfoAsset |</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1532,8 +1592,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'PWDB' =&gt; 'water',    #Potable Water Distribution</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 11 | all.system_type | PWDB | Potable Water Distribution | all.system_type | water | 'PWDB' =&gt; 'water',    #Potable Water Distribution |  |</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1556,8 +1620,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'PWSC' =&gt; 'water',    #Potable Water Service Connection</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 12 | all.system_type | PWSC | Potable Water Service Connection | all.system_type | water | 'PWSC' =&gt; 'water',    #Potable Water Service Connection |  |</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1580,8 +1648,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'PWST' =&gt; 'water',    #Potable Water Storage</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 13 | all.system_type | PWST | Potable Water Storage | all.system_type | water | 'PWST' =&gt; 'water',    #Potable Water Storage |  |</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1604,8 +1676,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'PWTM' =&gt; 'water',    #Potable Water Transmission</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 14 | all.system_type | PWTM | Potable Water Transmission | all.system_type | water | 'PWTM' =&gt; 'water',    #Potable Water Transmission |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1628,8 +1704,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v xml:space="preserve">'PWTP' =&gt; 'water',    #Potable Water Treatment </v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 15 | all.system_type | PWTP | Potable Water Treatment  | all.system_type | water | 'PWTP' =&gt; 'water',    #Potable Water Treatment  |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1652,8 +1732,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'RWST' =&gt; 'water',    #Raw Water Storage</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 16 | all.system_type | RWST | Raw Water Storage | all.system_type | water | 'RWST' =&gt; 'water',    #Raw Water Storage |  |</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1676,8 +1760,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'RWTN' =&gt; 'water',    #Raw Water Transfer</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 17 | all.system_type | RWTN | Raw Water Transfer | all.system_type | water | 'RWTN' =&gt; 'water',    #Raw Water Transfer |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1700,8 +1788,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'SWCO' =&gt; 'storm',    #Stormwater Collection</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 18 | all.system_type | SWCO | Stormwater Collection | all.system_type | storm | 'SWCO' =&gt; 'storm',    #Stormwater Collection |  |</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1724,8 +1816,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'SWSC' =&gt; 'storm',    #Stormwater Service Connection</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 19 | all.system_type | SWSC | Stormwater Service Connection | all.system_type | storm | 'SWSC' =&gt; 'storm',    #Stormwater Service Connection |  |</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1748,8 +1844,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'SWTD' =&gt; 'storm',    #Stormwater Treatment Device</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 20 | all.system_type | SWTD | Stormwater Treatment Device | all.system_type | storm | 'SWTD' =&gt; 'storm',    #Stormwater Treatment Device |  |</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1772,8 +1872,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v xml:space="preserve">'WWCO' =&gt; 'foul',    #Wastewater Collection </v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 21 | all.system_type | WWCO | Wastewater Collection  | all.system_type | foul | 'WWCO' =&gt; 'foul',    #Wastewater Collection  |  |</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1796,8 +1900,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'WWSC' =&gt; 'foul',    #Wasterwater Service Connection</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 22 | all.system_type | WWSC | Wasterwater Service Connection | all.system_type | foul | 'WWSC' =&gt; 'foul',    #Wasterwater Service Connection |  |</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1820,8 +1928,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'WWST' =&gt; 'foul',    #Wastewater Storage</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 23 | all.system_type | WWST | Wastewater Storage | all.system_type | foul | 'WWST' =&gt; 'foul',    #Wastewater Storage |  |</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1844,8 +1956,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v xml:space="preserve">'WWTP' =&gt; 'foul',    #Wastewater Treatment </v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 24 | all.system_type | WWTP | Wastewater Treatment  | all.system_type | foul | 'WWTP' =&gt; 'foul',    #Wastewater Treatment  |  |</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1868,8 +1984,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'ACBH' =&gt; 'storage',    #Bore Hole  (Well / Wellhead )</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 25 | node.node_type | ACBH | Bore Hole  (Well / Wellhead ) | node.node_type | storage | 'ACBH' =&gt; 'storage',    #Bore Hole  (Well / Wellhead ) |  |</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1892,8 +2012,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'ACCL' =&gt; 'break',    #Chlorination Point</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 26 | node.node_type | ACCL | Chlorination Point | node.node_type | break | 'ACCL' =&gt; 'break',    #Chlorination Point |  |</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1916,8 +2040,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'ACDP' =&gt; 'break',    #Cable Draw Point</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 27 | node.node_type | ACDP | Cable Draw Point | node.node_type | break | 'ACDP' =&gt; 'break',    #Cable Draw Point |  |</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1940,8 +2068,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v xml:space="preserve">'ACDW' =&gt; 'storage',    #Dry Well </v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 28 | node.node_type | ACDW | Dry Well  | node.node_type | storage | 'ACDW' =&gt; 'storage',    #Dry Well  |  |</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1964,8 +2096,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'ACFM' =&gt; 'manhole',    #Flowmeter Chamber</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 29 | node.node_type | ACFM | Flowmeter Chamber | node.node_type | manhole | 'ACFM' =&gt; 'manhole',    #Flowmeter Chamber |  |</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1988,8 +2124,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'ACMH' =&gt; 'manhole',    #Access Chamber Manhole</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 30 | node.node_type | ACMH | Access Chamber Manhole | node.node_type | manhole | 'ACMH' =&gt; 'manhole',    #Access Chamber Manhole |  |</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2012,8 +2152,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'ACPU' =&gt; 'storage',    #Pump Chamber</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 31 | node.node_type | ACPU | Pump Chamber | node.node_type | storage | 'ACPU' =&gt; 'storage',    #Pump Chamber |  |</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2036,8 +2180,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v xml:space="preserve">'ACSY' =&gt; 'break',    #Syphon Chamber </v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 32 | node.node_type | ACSY | Syphon Chamber  | node.node_type | break | 'ACSY' =&gt; 'break',    #Syphon Chamber  |  |</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2060,8 +2208,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'ACVP' =&gt; 'break',    #Vent Point</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 33 | node.node_type | ACVP | Vent Point | node.node_type | break | 'ACVP' =&gt; 'break',    #Vent Point |  |</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2084,8 +2236,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'ACVU' =&gt; 'manhole',    #Vacuum Chamber / Pit</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 34 | node.node_type | ACVU | Vacuum Chamber / Pit | node.node_type | manhole | 'ACVU' =&gt; 'manhole',    #Vacuum Chamber / Pit |  |</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2108,8 +2264,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'ACVX' =&gt; 'manhole',    #Vortex Chamber</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 35 | node.node_type | ACVX | Vortex Chamber | node.node_type | manhole | 'ACVX' =&gt; 'manhole',    #Vortex Chamber |  |</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2132,8 +2292,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v xml:space="preserve">'ACWW' =&gt; 'storage',    #Wet Well </v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J39" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 36 | node.node_type | ACWW | Wet Well  | node.node_type | storage | 'ACWW' =&gt; 'storage',    #Wet Well  |  |</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2156,8 +2320,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'BEND' =&gt; 'break',    #Bend</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 37 | node.node_type | BEND | Bend | node.node_type | break | 'BEND' =&gt; 'break',    #Bend |  |</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2180,8 +2348,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'END' =&gt; 'manhole',    #End</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J41" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 38 | node.node_type | END | End | node.node_type | manhole | 'END' =&gt; 'manhole',    #End |  |</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2204,8 +2376,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'HHLD' =&gt; 'break',    #Household</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J42" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 39 | node.node_type | HHLD | Household | node.node_type | break | 'HHLD' =&gt; 'break',    #Household |  |</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2228,8 +2404,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'INGD' =&gt; 'gully',    #Inlet Grated Open End</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J43" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 40 | node.node_type | INGD | Inlet Grated Open End | node.node_type | gully | 'INGD' =&gt; 'gully',    #Inlet Grated Open End |  |</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2252,8 +2432,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'INND' =&gt; 'gully',    #Inlet Open End</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J44" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 41 | node.node_type | INND | Inlet Open End | node.node_type | gully | 'INND' =&gt; 'gully',    #Inlet Open End |  |</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2276,8 +2460,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'JOIN' =&gt; 'break',    #Join</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J45" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 42 | node.node_type | JOIN | Join | node.node_type | break | 'JOIN' =&gt; 'break',    #Join |  |</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2300,8 +2488,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'LHCE' =&gt; 'break',    #Lamphole Cleaning Eye</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J46" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 43 | node.node_type | LHCE | Lamphole Cleaning Eye | node.node_type | break | 'LHCE' =&gt; 'break',    #Lamphole Cleaning Eye |  |</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2324,8 +2516,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'METR' =&gt; 'break',    #Meter</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J47" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 44 | node.node_type | METR | Meter | node.node_type | break | 'METR' =&gt; 'break',    #Meter |  |</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2348,8 +2544,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'OTGD' =&gt; 'gully',    #Outlet Grated Open End</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J48" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 45 | node.node_type | OTGD | Outlet Grated Open End | node.node_type | gully | 'OTGD' =&gt; 'gully',    #Outlet Grated Open End |  |</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2372,8 +2572,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'OTND' =&gt; 'gully',    #Outlet Open End</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J49" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 46 | node.node_type | OTND | Outlet Open End | node.node_type | gully | 'OTND' =&gt; 'gully',    #Outlet Open End |  |</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -2396,8 +2600,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'PSTN' =&gt; 'storage',    #Pump Station</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J50" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 47 | node.node_type | PSTN | Pump Station | node.node_type | storage | 'PSTN' =&gt; 'storage',    #Pump Station |  |</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -2420,8 +2628,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'RGDN' =&gt; 'storage',    #Rain Garden</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J51" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 48 | node.node_type | RGDN | Rain Garden | node.node_type | storage | 'RGDN' =&gt; 'storage',    #Rain Garden |  |</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -2444,8 +2656,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'SMP1' =&gt; 'gully',    #Sump Single Side Entry</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J52" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 49 | node.node_type | SMP1 | Sump Single Side Entry | node.node_type | gully | 'SMP1' =&gt; 'gully',    #Sump Single Side Entry |  |</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -2468,8 +2684,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'SMP2' =&gt; 'gully',    #Sump Double Side Entry</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J53" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 50 | node.node_type | SMP2 | Sump Double Side Entry | node.node_type | gully | 'SMP2' =&gt; 'gully',    #Sump Double Side Entry |  |</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -2492,8 +2712,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'SMPD' =&gt; 'gully',    #Sump Dome</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J54" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 51 | node.node_type | SMPD | Sump Dome | node.node_type | gully | 'SMPD' =&gt; 'gully',    #Sump Dome |  |</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -2516,8 +2740,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'TEE' =&gt; 'break',    #Tee</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J55" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 52 | node.node_type | TEE | Tee | node.node_type | break | 'TEE' =&gt; 'break',    #Tee |  |</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -2540,8 +2768,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'VALV' =&gt; 'break',    #Valve</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J56" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 53 | node.node_type | VALV | Valve | node.node_type | break | 'VALV' =&gt; 'break',    #Valve |  |</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -2567,8 +2799,12 @@
       <c r="H57" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J57" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 54 | all.status | INUS | In Use | NA | NA | 'INUS' =&gt; 'NA',    #In Use | used to filter active assets - otherwise not used in ICM |</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -2594,8 +2830,12 @@
       <c r="H58" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J58" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 55 | all.status | AOOS | Active - Out of Service  | NA | NA | 'AOOS' =&gt; 'NA',    #Active - Out of Service  | used to filter active assets - otherwise not used in ICM |</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -2621,8 +2861,12 @@
       <c r="H59" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J59" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 56 | all.status | STBY | Active - Standby  | NA | NA | 'STBY' =&gt; 'NA',    #Active - Standby  | used to filter active assets - otherwise not used in ICM |</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -2648,8 +2892,12 @@
       <c r="H60" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J60" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 57 | all.status | STOK | Active - Stock | NA | NA | 'STOK' =&gt; 'NA',    #Active - Stock | used to filter active assets - otherwise not used in ICM |</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -2675,8 +2923,12 @@
       <c r="H61" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J61" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 58 | all.status | REMO | Removed | NA | NA | 'REMO' =&gt; 'NA',    #Removed | used to filter active assets - otherwise not used in ICM |</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -2702,8 +2954,12 @@
       <c r="H62" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J62" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 59 | all.status | ABAN | Abandoned | NA | NA | 'ABAN' =&gt; 'NA',    #Abandoned | used to filter active assets - otherwise not used in ICM |</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -2729,8 +2985,12 @@
       <c r="H63" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J63" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 60 | all.status | SPAR | Decommissioned / Spare | NA | NA | 'SPAR' =&gt; 'NA',    #Decommissioned / Spare | used to filter active assets - otherwise not used in ICM |</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -2756,8 +3016,12 @@
       <c r="H64" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J64" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 61 | all.status | VIRT | Virtual connection | NA | NA | 'VIRT' =&gt; 'NA',    #Virtual connection | used to filter active assets - otherwise not used in ICM |</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -2783,8 +3047,12 @@
       <c r="H65" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J65" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 62 | all.status | REPU | Active - Repurposed (Duct) | NA | NA | 'REPU' =&gt; 'NA',    #Active - Repurposed (Duct) | used to filter active assets - otherwise not used in ICM |</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -2810,8 +3078,12 @@
       <c r="H66" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J66" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>| 63 | all.status | EROR | Error during Data Entry | NA | NA | 'EROR' =&gt; 'NA',    #Error during Data Entry | used to filter active assets - otherwise not used in ICM |</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -2834,8 +3106,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'R' =&gt; 'RFLUME',    #Rectangular-throated Flume</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J67" s="8" t="str">
+        <f t="shared" ref="J67:J86" si="1">"| "&amp;A67&amp;" | "&amp;B67&amp;" | "&amp;C67&amp;" | "&amp;D67&amp;" | "&amp;E67&amp;" | "&amp;F67&amp;" | "&amp;G67&amp;" | "&amp;H67&amp;" |"</f>
+        <v>| 64 | flume.type | R | Rectangular-throated Flume | flume.link_type | RFLUME | 'R' =&gt; 'RFLUME',    #Rectangular-throated Flume |  |</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -2858,8 +3134,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'T' =&gt; 'TFLUME',    #Trapezoidal-throated Flume</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J68" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 65 | flume.type | T | Trapezoidal-throated Flume | flume.link_type | TFLUME | 'T' =&gt; 'TFLUME',    #Trapezoidal-throated Flume |  |</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -2882,8 +3162,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'U' =&gt; 'UFLUME',    #U-throated Flume</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J69" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 66 | flume.type | U | U-throated Flume | flume.link_type | UFLUME | 'U' =&gt; 'UFLUME',    #U-throated Flume |  |</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -2906,8 +3190,12 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'F' =&gt; 'RFLUME',    #Regular Flume</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J70" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 67 | flume.type | F | Regular Flume | flume.link_type | RFLUME | 'F' =&gt; 'RFLUME',    #Regular Flume |  |</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -2930,10 +3218,14 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'O' =&gt; 'Orific',    #Orifice</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J71" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 68 | orifice.type | O | Orifice | orifice.link_type | Orific | 'O' =&gt; 'Orific',    #Orifice |  |</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <f t="shared" ref="A72:A85" si="0">1+A71</f>
+        <f t="shared" ref="A72:A85" si="2">1+A71</f>
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2955,10 +3247,14 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'V' =&gt; 'Vldorf',    #Variable discharge</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J72" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 69 | orifice.type | V | Variable discharge | orifice.link_type | Vldorf | 'V' =&gt; 'Vldorf',    #Variable discharge |  |</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -2980,10 +3276,14 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'F' =&gt; 'FIXPMP',    #Fixed Speed Pump</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J73" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 70 | pump.type | F | Fixed Speed Pump | pump.link_type | FIXPMP | 'F' =&gt; 'FIXPMP',    #Fixed Speed Pump |  |</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -3005,10 +3305,14 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'V' =&gt; 'VSPPMP',    #Variable Speed Pump</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J74" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 71 | pump.type | V | Variable Speed Pump | pump.link_type | VSPPMP | 'V' =&gt; 'VSPPMP',    #Variable Speed Pump |  |</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -3030,10 +3334,14 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'R' =&gt; 'ROTPMP',    #Rotodynamic Pump</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J75" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 72 | pump.type | R | Rotodynamic Pump | pump.link_type | ROTPMP | 'R' =&gt; 'ROTPMP',    #Rotodynamic Pump |  |</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -3055,10 +3363,14 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'S' =&gt; 'SCRPMP',    #Screw pump</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J76" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 73 | pump.type | S | Screw pump | pump.link_type | SCRPMP | 'S' =&gt; 'SCRPMP',    #Screw pump |  |</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -3083,10 +3395,14 @@
       <c r="H77" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J77" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 74 | siphon.type | G | General | NA | NA | 'G' =&gt; 'NA',    #General | out_type not needed as there isn't a type in ICM |</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -3108,10 +3424,14 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'S' =&gt; 'Weir',    #Standard</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J78" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 75 | weir.type | S | Standard | weir.link_type | Weir | 'S' =&gt; 'Weir',    #Standard |  |</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3133,10 +3453,14 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'VC' =&gt; 'VCWEIR',    #Variable Crest</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J79" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 76 | weir.type | VC | Variable Crest | weir.link_type | VCWEIR | 'VC' =&gt; 'VCWEIR',    #Variable Crest |  |</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -3158,10 +3482,14 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'VW' =&gt; 'VWWEIR',    #Variable Weir</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J80" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 77 | weir.type | VW | Variable Weir | weir.link_type | VWWEIR | 'VW' =&gt; 'VWWEIR',    #Variable Weir |  |</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -3183,10 +3511,14 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'CO' =&gt; 'COWEIR',    #Contracted Rectangular</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J81" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 78 | weir.type | CO | Contracted Rectangular | weir.link_type | COWEIR | 'CO' =&gt; 'COWEIR',    #Contracted Rectangular |  |</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3208,10 +3540,14 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'VN' =&gt; 'VNWEIR',    #Vee Notch</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J82" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 79 | weir.type | VN | Vee Notch | weir.link_type | VNWEIR | 'VN' =&gt; 'VNWEIR',    #Vee Notch |  |</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -3233,10 +3569,14 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'TR' =&gt; 'TRWEIR',    #Trapezoidal Notch</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J83" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 80 | weir.type | TR | Trapezoidal Notch | weir.link_type | TRWEIR | 'TR' =&gt; 'TRWEIR',    #Trapezoidal Notch |  |</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -3258,10 +3598,14 @@
         <f>"'"&amp;Table478910[[#This Row],[Text]]&amp;"' =&gt; '"&amp;Table478910[[#This Row],[out_type]]&amp;"',    #"&amp;Table478910[[#This Row],[Description]]</f>
         <v>'BR' =&gt; 'BRWEIR',    #Broad Crested</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J84" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 81 | weir.type | BR | Broad Crested | weir.link_type | BRWEIR | 'BR' =&gt; 'BRWEIR',    #Broad Crested |  |</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3285,12 +3629,25 @@
       </c>
       <c r="H85" s="3" t="s">
         <v>218</v>
+      </c>
+      <c r="J85" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>| 82 | weir.type | GW | Gated weir | weir.link_type | GTWEIR | 'GW' =&gt; 'GTWEIR',    #Gated weir | this would be a new type in InfoAsset |</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J86" s="8" t="str">
+        <f>"| --- | --- | --- | --- | --- | --- | --- | --- |"</f>
+        <v>| --- | --- | --- | --- | --- | --- | --- | --- |</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/excel/standards and choices.xlsx
+++ b/excel/standards and choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLewis\Downloads\infoasset2icm_wastewater_model\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F9FDEC-51A5-4269-84F6-625EF1999094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7849730-571F-4F7F-889C-94021F9D2258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4583E5F6-CD15-4D42-8672-8DA5A4BAD8CC}"/>
   </bookViews>
@@ -1159,9 +1159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEC6927-9412-46DD-BE24-768FD3AF8048}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="A1:H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,11 +1169,11 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="52.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="177.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
@@ -3107,7 +3107,7 @@
         <v>'R' =&gt; 'RFLUME',    #Rectangular-throated Flume</v>
       </c>
       <c r="J67" s="8" t="str">
-        <f t="shared" ref="J67:J86" si="1">"| "&amp;A67&amp;" | "&amp;B67&amp;" | "&amp;C67&amp;" | "&amp;D67&amp;" | "&amp;E67&amp;" | "&amp;F67&amp;" | "&amp;G67&amp;" | "&amp;H67&amp;" |"</f>
+        <f t="shared" ref="J67:J85" si="1">"| "&amp;A67&amp;" | "&amp;B67&amp;" | "&amp;C67&amp;" | "&amp;D67&amp;" | "&amp;E67&amp;" | "&amp;F67&amp;" | "&amp;G67&amp;" | "&amp;H67&amp;" |"</f>
         <v>| 64 | flume.type | R | Rectangular-throated Flume | flume.link_type | RFLUME | 'R' =&gt; 'RFLUME',    #Rectangular-throated Flume |  |</v>
       </c>
     </row>

--- a/excel/standards and choices.xlsx
+++ b/excel/standards and choices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLewis\Downloads\infoasset2icm_wastewater_model\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLewis\Downloads\wwl-mod-infoasset2icm-dev\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7849730-571F-4F7F-889C-94021F9D2258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A377AF79-429D-4FE1-9555-8F55CD6A435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4583E5F6-CD15-4D42-8672-8DA5A4BAD8CC}"/>
   </bookViews>
@@ -1161,7 +1161,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="A1:H85"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
